--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tinyint(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>recordtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +131,6 @@
   </si>
   <si>
     <t>主键自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,12 +229,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否有子孙ID，
-0无，1有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识用户权限,1为普通用户，
+    <t>warehouse_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色分组，标识用户权限,1为普通用户，
 有出库及查询权限。
 2为仓库管理员，有全部权限。
 admin为超级管理员，
@@ -259,7 +242,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>warehouse_name</t>
+    <t>is_enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_ended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为最终项
+1是，0否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,9 +419,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -429,8 +430,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,48 +801,48 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -832,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -841,16 +860,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -868,7 +887,9 @@
       <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -897,9 +918,9 @@
         <v>1</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -913,9 +934,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="K7" s="2"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -929,62 +950,62 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="K8" s="2"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
+      <c r="G9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="5"/>
       <c r="K10" s="2"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -992,44 +1013,44 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>17</v>
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H14"/>
       <c r="J14" s="6"/>
@@ -1037,119 +1058,119 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="G20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K21"/>
@@ -1167,7 +1188,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -1176,14 +1197,14 @@
       <c r="O23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -1191,122 +1212,123 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="E31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="19"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -1322,11 +1344,11 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="411"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recordtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,18 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应库存表中itemid字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">对应用户信息表中UID字段 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记录本次操作时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +175,6 @@
   </si>
   <si>
     <t>出入库记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三种状态，in标识入库，out标识出库，out_lend标识借出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,53 +188,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编号，由自身ID-祖先ID
+    <t>warehouse_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_ended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为最终项
+1是，0否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号，由祖先ID和自身ID
 构成（0-0-0）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>warehouse_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色分组，标识用户权限,1为普通用户，
+    <t>标识仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存盘点表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应库存表中item_id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">对应用户信息表中uid字段 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_stock_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_sn_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer_barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品使用人工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑资产条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四种状态，in标识入库，out标识出库，lend标识借出，change标识校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色分组，标识用户权限,0表示只有查询权限，1
 有出库及查询权限。
 2为仓库管理员，有全部权限。
-admin为超级管理员，
+admin为99，
 只有添加和删除用户、
 改变仓库管理员的权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_ended</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为最终项
-1是，0否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次盘点开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次盘点结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次盘点的库存实际数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点状态，1为正在盘点，0为盘点结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -378,15 +478,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -398,11 +489,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,11 +534,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,10 +547,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,9 +562,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,10 +571,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,7 +681,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,23 +890,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
@@ -801,48 +919,48 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -851,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -860,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
@@ -869,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -954,188 +1072,205 @@
       <c r="R8" s="5"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="14" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>27</v>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="5"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
+    <row r="10" spans="1:19" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="5"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="2"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="Q13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="P14" s="3"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="H15"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" s="10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1144,52 +1279,67 @@
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:15" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="E22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -1197,14 +1347,6 @@
       <c r="O23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -1212,149 +1354,395 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="D27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="F28" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
+      <c r="F34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A24:F24"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A38:G38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识仓库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +360,10 @@
   </si>
   <si>
     <t>盘点状态，1为正在盘点，0为盘点结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,12 +575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,16 +923,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -948,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -1117,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1196,7 +1196,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15"/>
       <c r="J15" s="6"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1328,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>30</v>
@@ -1375,11 +1375,11 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
@@ -1389,22 +1389,22 @@
         <v>46</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>4</v>
@@ -1427,13 +1427,13 @@
         <v>7</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>16</v>
@@ -1532,21 +1532,21 @@
         <v>50</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>37</v>
@@ -1555,26 +1555,26 @@
         <v>36</v>
       </c>
       <c r="F34" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="H34" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -1585,25 +1585,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1719,22 +1719,22 @@
         <v>31</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="411"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,64 +414,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,16 +461,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,23 +479,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,28 +501,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,7 +611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,426 +848,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="K7" s="2"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="K8" s="2"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
       <c r="K11" s="2"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H15"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K23"/>
@@ -1354,7 +1284,7 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="K25"/>
@@ -1364,376 +1294,376 @@
       <c r="O25"/>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="A30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:9" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="10"/>
+      <c r="A41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="A42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="12" t="s">
         <v>59</v>
       </c>
     </row>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="411"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,7 +611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>50</v>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="411"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,11 +366,26 @@
     <t>仓库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>仓库信息表</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,11 +472,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,6 +553,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,7 +656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,7 +882,8 @@
     <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
@@ -1083,6 +1129,9 @@
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="G13" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1093,15 +1142,20 @@
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14"/>
+      <c r="G14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1122,14 +1176,18 @@
       <c r="E15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H15"/>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="P15" s="3"/>
     </row>
@@ -1149,13 +1207,18 @@
       <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="G16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -1169,11 +1232,14 @@
       <c r="E17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -1191,10 +1257,16 @@
       <c r="E18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="G18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1206,8 +1278,12 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -1217,8 +1293,12 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1234,10 +1314,14 @@
       <c r="E21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="9">
+      <c r="J21" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1257,10 +1341,16 @@
       <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="15"/>
@@ -1668,11 +1758,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>warehouse_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +872,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>7</v>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,10 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>18</v>
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>41</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1155,7 +1155,7 @@
       <c r="E14" s="23"/>
       <c r="F14"/>
       <c r="G14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -1181,16 +1181,16 @@
         <v>44</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="5"/>
       <c r="P15" s="3"/>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>7</v>
@@ -1349,10 +1349,10 @@
         <v>25</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>30</v>
@@ -1413,22 +1413,22 @@
         <v>46</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>4</v>
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>16</v>
@@ -1556,7 +1556,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>50</v>
@@ -1567,10 +1567,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>37</v>
@@ -1579,26 +1579,26 @@
         <v>36</v>
       </c>
       <c r="F34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="H34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -1609,25 +1609,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1743,22 +1743,22 @@
         <v>31</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ams_db.xlsx
+++ b/doc/ams_db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
   <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,14 +366,6 @@
     <t>仓库信息表</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>warehouse_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +375,18 @@
   </si>
   <si>
     <t>分类信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应仓库信息表的warehouse_id字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,35 +480,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -559,12 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -871,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,10 +858,10 @@
     <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
@@ -898,470 +870,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="K7" s="2"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="K8" s="2"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="7"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="K11" s="2"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14"/>
-      <c r="G14" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="K19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="K20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="L22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K23"/>
@@ -1378,7 +1354,7 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="K25"/>
@@ -1388,376 +1364,376 @@
       <c r="O25"/>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="A30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:9" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9"/>
+      <c r="A41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="A42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1766,8 +1742,8 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
